--- a/dataFiles/onboarding/onboardingChronic - Negative.xlsx
+++ b/dataFiles/onboarding/onboardingChronic - Negative.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="115">
   <si>
     <t>WelcomeOnboarding</t>
   </si>
@@ -254,9 +254,6 @@
     <t>We collect personal information only for medical purposes required to determine your well-being. Based on that, our clinicians can provide you with faster and better support.</t>
   </si>
   <si>
-    <t>prabhaAutojzoN1838@mailinator.com</t>
-  </si>
-  <si>
     <t>Verify empty in all required fields</t>
   </si>
   <si>
@@ -269,91 +266,109 @@
     <t>Verify special characters values in all required fields</t>
   </si>
   <si>
+    <t>Chronic_Positive_02</t>
+  </si>
+  <si>
+    <t>InvalidHomePhoneNumberText</t>
+  </si>
+  <si>
+    <t>InvalidCellPhoneNumberText</t>
+  </si>
+  <si>
+    <t>InvalidFirstNameText</t>
+  </si>
+  <si>
+    <t>InvalidLastNameText</t>
+  </si>
+  <si>
+    <t>InvalidRelationCellPhone</t>
+  </si>
+  <si>
+    <t>InvalidRelationText</t>
+  </si>
+  <si>
+    <t>InvalidHealthCardNumberText</t>
+  </si>
+  <si>
+    <t>Please enter valid home phone number;Phone number must be at least 10 digits long</t>
+  </si>
+  <si>
+    <t>Please enter valid cell phone number;Phone number must be at least 10 digits long</t>
+  </si>
+  <si>
+    <t>Please enter valid first name</t>
+  </si>
+  <si>
+    <t>Please enter valid last name</t>
+  </si>
+  <si>
+    <t>Please enter valid cell phone number</t>
+  </si>
+  <si>
+    <t>Please enter relation</t>
+  </si>
+  <si>
+    <t>Please enter valid health card number</t>
+  </si>
+  <si>
+    <t>InvalidHomePhoneNumber</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>fsdgf1234</t>
+  </si>
+  <si>
+    <t>!@#$%^</t>
+  </si>
+  <si>
+    <t>InvalidCellNumber</t>
+  </si>
+  <si>
+    <t>InvalidFirstName</t>
+  </si>
+  <si>
+    <t>InvalidLastName</t>
+  </si>
+  <si>
+    <t>InvalidRelation</t>
+  </si>
+  <si>
+    <t>InvalidRelationCellNumber</t>
+  </si>
+  <si>
+    <t>InvalidCity</t>
+  </si>
+  <si>
+    <t>InvalidPostal</t>
+  </si>
+  <si>
+    <t>InvalidHealthCard</t>
+  </si>
+  <si>
+    <t>Chronic_Positive_03</t>
+  </si>
+  <si>
+    <t>Chronic_Positive_04</t>
+  </si>
+  <si>
+    <t>123435245</t>
+  </si>
+  <si>
+    <t>prabhaAutouRPp8882@mailinator.com</t>
+  </si>
+  <si>
+    <t>prabhaAutoZmQn5979@mailinator.com</t>
+  </si>
+  <si>
+    <t>prabhaAutoRmRE5851@mailinator.com</t>
+  </si>
+  <si>
+    <t>prabhaAutoHUmx7934@mailinator.com</t>
+  </si>
+  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Chronic_Positive_02</t>
-  </si>
-  <si>
-    <t>InvalidHomePhoneNumberText</t>
-  </si>
-  <si>
-    <t>InvalidCellPhoneNumberText</t>
-  </si>
-  <si>
-    <t>InvalidFirstNameText</t>
-  </si>
-  <si>
-    <t>InvalidLastNameText</t>
-  </si>
-  <si>
-    <t>InvalidRelationCellPhone</t>
-  </si>
-  <si>
-    <t>InvalidRelationText</t>
-  </si>
-  <si>
-    <t>InvalidHealthCardNumberText</t>
-  </si>
-  <si>
-    <t>Please enter valid home phone number;Phone number must be at least 10 digits long</t>
-  </si>
-  <si>
-    <t>Please enter valid cell phone number;Phone number must be at least 10 digits long</t>
-  </si>
-  <si>
-    <t>Please enter valid first name</t>
-  </si>
-  <si>
-    <t>Please enter valid last name</t>
-  </si>
-  <si>
-    <t>Please enter valid cell phone number</t>
-  </si>
-  <si>
-    <t>Please enter relation</t>
-  </si>
-  <si>
-    <t>Please enter valid health card number</t>
-  </si>
-  <si>
-    <t>InvalidHomePhoneNumber</t>
-  </si>
-  <si>
-    <t>Empty</t>
-  </si>
-  <si>
-    <t>fsdgf1234</t>
-  </si>
-  <si>
-    <t>!@#$%^</t>
-  </si>
-  <si>
-    <t>InvalidCellNumber</t>
-  </si>
-  <si>
-    <t>InvalidFirstName</t>
-  </si>
-  <si>
-    <t>InvalidLastName</t>
-  </si>
-  <si>
-    <t>InvalidRelation</t>
-  </si>
-  <si>
-    <t>InvalidRelationCellNumber</t>
-  </si>
-  <si>
-    <t>InvalidCity</t>
-  </si>
-  <si>
-    <t>InvalidPostal</t>
-  </si>
-  <si>
-    <t>InvalidHealthCard</t>
-  </si>
-  <si>
-    <t>prabhaautoobdh1795@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -758,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N2" sqref="A1:BG5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:BG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,13 +822,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>4</v>
@@ -852,25 +867,25 @@
         <v>15</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AC1" s="2" t="s">
         <v>19</v>
@@ -882,7 +897,7 @@
         <v>21</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG1" s="2" t="s">
         <v>22</v>
@@ -891,7 +906,7 @@
         <v>23</v>
       </c>
       <c r="AI1" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AJ1" s="2" t="s">
         <v>24</v>
@@ -912,7 +927,7 @@
         <v>29</v>
       </c>
       <c r="AP1" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AQ1" s="2" t="s">
         <v>30</v>
@@ -945,25 +960,25 @@
         <v>39</v>
       </c>
       <c r="BA1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BD1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BE1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BF1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BG1" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="BF1" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="BG1" s="9" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:59" ht="135" x14ac:dyDescent="0.25">
@@ -971,10 +986,10 @@
         <v>74</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>40</v>
@@ -986,13 +1001,13 @@
         <v>75</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>42</v>
@@ -1007,7 +1022,7 @@
         <v>45</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>46</v>
@@ -1031,25 +1046,25 @@
         <v>51</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>52</v>
       </c>
       <c r="X2" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>53</v>
       </c>
       <c r="Z2" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AA2" s="3" t="s">
         <v>54</v>
       </c>
       <c r="AB2" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AC2" s="3" t="s">
         <v>42</v>
@@ -1061,7 +1076,7 @@
         <v>56</v>
       </c>
       <c r="AF2" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG2" s="3" t="s">
         <v>57</v>
@@ -1070,7 +1085,7 @@
         <v>58</v>
       </c>
       <c r="AI2" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AJ2" s="4" t="s">
         <v>59</v>
@@ -1091,7 +1106,7 @@
         <v>61</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AQ2" s="4" t="s">
         <v>62</v>
@@ -1124,36 +1139,36 @@
         <v>69</v>
       </c>
       <c r="BA2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC2" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="BB2" s="10" t="s">
+      <c r="BD2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="BC2" s="10" t="s">
+      <c r="BE2" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="BD2" s="10" t="s">
+      <c r="BF2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="BE2" s="10" t="s">
+      <c r="BG2" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="BF2" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG2" s="10" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>40</v>
@@ -1165,13 +1180,13 @@
         <v>75</v>
       </c>
       <c r="G3" s="13">
-        <v>12345</v>
+        <v>123435245</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I3" s="13">
-        <v>12345</v>
+        <v>123435245</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>42</v>
@@ -1186,7 +1201,7 @@
         <v>45</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>46</v>
@@ -1209,26 +1224,26 @@
       <c r="U3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="13">
-        <v>12345</v>
+      <c r="V3" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="X3" s="13">
-        <v>12345</v>
+      <c r="X3" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="Z3" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AA3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="13">
-        <v>12345</v>
+      <c r="AB3" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="AC3" s="3" t="s">
         <v>42</v>
@@ -1240,7 +1255,7 @@
         <v>56</v>
       </c>
       <c r="AF3" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG3" s="3" t="s">
         <v>57</v>
@@ -1249,7 +1264,7 @@
         <v>58</v>
       </c>
       <c r="AI3" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AJ3" s="4" t="s">
         <v>59</v>
@@ -1269,8 +1284,8 @@
       <c r="AO3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AP3" s="13">
-        <v>12345</v>
+      <c r="AP3" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="AQ3" s="4" t="s">
         <v>62</v>
@@ -1303,36 +1318,36 @@
         <v>69</v>
       </c>
       <c r="BA3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC3" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="BB3" s="10" t="s">
+      <c r="BD3" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="BC3" s="10" t="s">
+      <c r="BE3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="BD3" s="10" t="s">
+      <c r="BF3" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="BE3" s="10" t="s">
+      <c r="BG3" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="BF3" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG3" s="10" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:59" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>40</v>
@@ -1344,13 +1359,13 @@
         <v>75</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>42</v>
@@ -1365,7 +1380,7 @@
         <v>45</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>46</v>
@@ -1389,25 +1404,25 @@
         <v>51</v>
       </c>
       <c r="V4" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>52</v>
       </c>
       <c r="X4" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>53</v>
       </c>
       <c r="Z4" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AA4" s="3" t="s">
         <v>54</v>
       </c>
       <c r="AB4" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>42</v>
@@ -1419,7 +1434,7 @@
         <v>56</v>
       </c>
       <c r="AF4" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG4" s="3" t="s">
         <v>57</v>
@@ -1428,7 +1443,7 @@
         <v>58</v>
       </c>
       <c r="AI4" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AJ4" s="4" t="s">
         <v>59</v>
@@ -1449,7 +1464,7 @@
         <v>61</v>
       </c>
       <c r="AP4" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AQ4" s="4" t="s">
         <v>62</v>
@@ -1482,36 +1497,36 @@
         <v>69</v>
       </c>
       <c r="BA4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB4" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC4" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="BB4" s="10" t="s">
+      <c r="BD4" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="BC4" s="10" t="s">
+      <c r="BE4" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="BD4" s="10" t="s">
+      <c r="BF4" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="BE4" s="10" t="s">
+      <c r="BG4" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="BF4" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG4" s="10" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>40</v>
@@ -1523,13 +1538,13 @@
         <v>75</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>42</v>
@@ -1544,7 +1559,7 @@
         <v>45</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>46</v>
@@ -1568,25 +1583,25 @@
         <v>51</v>
       </c>
       <c r="V5" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>52</v>
       </c>
       <c r="X5" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>53</v>
       </c>
       <c r="Z5" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AA5" s="3" t="s">
         <v>54</v>
       </c>
       <c r="AB5" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AC5" s="3" t="s">
         <v>42</v>
@@ -1598,7 +1613,7 @@
         <v>56</v>
       </c>
       <c r="AF5" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG5" s="3" t="s">
         <v>57</v>
@@ -1607,7 +1622,7 @@
         <v>58</v>
       </c>
       <c r="AI5" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AJ5" s="4" t="s">
         <v>59</v>
@@ -1628,7 +1643,7 @@
         <v>61</v>
       </c>
       <c r="AP5" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AQ5" s="4" t="s">
         <v>62</v>
@@ -1661,25 +1676,25 @@
         <v>69</v>
       </c>
       <c r="BA5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC5" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="BB5" s="10" t="s">
+      <c r="BD5" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="BC5" s="10" t="s">
+      <c r="BE5" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="BD5" s="10" t="s">
+      <c r="BF5" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="BE5" s="10" t="s">
+      <c r="BG5" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="BF5" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG5" s="10" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.25">
@@ -1711,14 +1726,18 @@
       <c r="AI12" s="15"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5 I2:I5 V2:V5 X2:X5 AB3:AB5 AP2:AP5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB4:AB5 G4:G5 I4:I5 V4:V5 X4:X5 G2 I2 V2 X2 AP2 AP4:AP5">
       <formula1>"12345,fsdgf1234,!@#$%^,Empty"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3 I3 V3 X3 AB3 AP3">
+      <formula1>"123435245,fsdgf1234,!@#$%^,Empty"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dataFiles/onboarding/onboardingChronic - Negative.xlsx
+++ b/dataFiles/onboarding/onboardingChronic - Negative.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Carepath-Mobile-Automation\dataFiles\onboarding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebDriverIO\dataFiles\onboarding\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -356,16 +356,16 @@
     <t>123435245</t>
   </si>
   <si>
-    <t>prabhaAutouRPp8882@mailinator.com</t>
-  </si>
-  <si>
-    <t>prabhaAutoZmQn5979@mailinator.com</t>
-  </si>
-  <si>
-    <t>prabhaAutoRmRE5851@mailinator.com</t>
-  </si>
-  <si>
-    <t>prabhaAutoHUmx7934@mailinator.com</t>
+    <t>prabhaautogxbg1114@mailinator.com</t>
+  </si>
+  <si>
+    <t>prabhaautodmoc6011@mailinator.com</t>
+  </si>
+  <si>
+    <t>prabhaautojaub9563@mailinator.com</t>
+  </si>
+  <si>
+    <t>prabhaautorheo7334@mailinator.com</t>
   </si>
   <si>
     <t>No</t>
@@ -774,7 +774,7 @@
   <dimension ref="A1:BG12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:BG5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,7 +1168,7 @@
         <v>77</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>40</v>
@@ -1201,7 +1201,7 @@
         <v>45</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>46</v>
@@ -1347,7 +1347,7 @@
         <v>78</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>40</v>
@@ -1559,7 +1559,7 @@
         <v>45</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>46</v>
